--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -355,17 +355,17 @@
           <t>02.474.172/0001-22</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="0" t="inlineStr">
         <is>
           <t>INSTITUTO BRASILEIRO DE ENSINO, DESENVOLVIMENTO E PESQUISA IDP - LTDA</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ATIVA</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>ATIVA</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>DF</t>
         </is>
@@ -382,17 +382,17 @@
           <t>03.591.509/0001-44</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>DLF ENGENHARIA COMERCIO E REPRESENTACAO LTDA</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ATIVA</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>ATIVA</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>DF</t>
         </is>
@@ -409,17 +409,17 @@
           <t>00.171.391/0001-07</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>GTQ PLANEJAMENTO, PROMOCOES ARTISTICAS E CULTURAIS LTDA</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ATIVA</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>ATIVA</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>RJ</t>
         </is>
@@ -436,17 +436,17 @@
           <t>06.862.927/0001-17</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>ITATIAIA ATACADISTA LTDA</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ATIVA</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>ATIVA</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>DF</t>
         </is>
@@ -463,17 +463,17 @@
           <t>02.452.824/0001-28</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>LAVANDERIA PADRAO LTDA</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ATIVA</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>ATIVA</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>DF</t>
         </is>
@@ -490,17 +490,17 @@
           <t>33.683.111/0001-07</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="0" t="inlineStr">
         <is>
           <t>SERVICO FEDERAL DE PROCESSAMENTO DE DADOS (SERPRO)</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ATIVA</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>ATIVA</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>DF</t>
         </is>
@@ -517,17 +517,17 @@
           <t>33.416.994/0001-80</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="0" t="inlineStr">
         <is>
           <t>DATAGROUP TECNOLOGIA DA INFORMACAO LTDA</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ATIVA</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>ATIVA</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -544,17 +544,17 @@
           <t>00.336.701/0001-04</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="0" t="inlineStr">
         <is>
           <t>TELECOMUNICACOES BRASILEIRAS SA TELEBRAS</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ATIVA</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>ATIVA</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>DF</t>
         </is>
@@ -571,17 +571,17 @@
           <t>17.622.782/0001-01</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="0" t="inlineStr">
         <is>
           <t>ISTOBAL DO BRASIL INDUSTRIA E COMERCIO LTDA</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ATIVA</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>ATIVA</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -598,17 +598,17 @@
           <t>42.126.310/0001-05</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="0" t="inlineStr">
         <is>
           <t>RABELO ENGENHARIA LTDA</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ATIVA</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>ATIVA</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>CE</t>
         </is>
